--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="16275" windowHeight="9540" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="16275" windowHeight="9540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="track" sheetId="2" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="data_14_0.12" sheetId="6" r:id="rId4"/>
     <sheet name="data_10_0.08" sheetId="7" r:id="rId5"/>
     <sheet name="data_10_0.16" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -3546,11 +3547,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="205137792"/>
-        <c:axId val="205136256"/>
+        <c:axId val="107886080"/>
+        <c:axId val="107887616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205137792"/>
+        <c:axId val="107886080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3562,12 +3563,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="205136256"/>
+        <c:crossAx val="107887616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205136256"/>
+        <c:axId val="107887616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3575,7 +3576,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205137792"/>
+        <c:crossAx val="107886080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3587,6 +3588,2416 @@
           </a:solidFill>
         </a:ln>
       </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data_10_0.12!$G$2:$G$409</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="408"/>
+                <c:pt idx="0">
+                  <c:v>-1.7713799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.18074499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.6654199999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0402200000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2546200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1853299999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.1618999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.8659100000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.9787800000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.5157099999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9071799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4189499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0813100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.3738699999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0285299999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6.7411900000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.1714199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.50574E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.7086400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.8116500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.8492100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.8242600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.77152E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.7096799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.6465199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.58774E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.0932599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.0417899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.7777600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.6044300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.4778599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.34544E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.2302799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.15318E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.10381E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.0977600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.12029E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.16122E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.20477E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.3048499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.4117599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.50209E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.5968699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.66426E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.71258E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.7490200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1.77865E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.7814300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.77187E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.7604700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.7482999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.7345200000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.7267999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.7242400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-2.0110300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.9786399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.8411799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.77112E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.7153600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.66631E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.63254E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-1.6213100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1.63342E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-2.0830499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-2.1111100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-1.9980000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.9773900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1.99182E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.9921399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.8866299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-1.9283700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-2.0440799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-2.1656399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-2.3066900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-2.5288700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-2.71495E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-2.8932800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-3.0855199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-3.2780700000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-3.4577499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-3.6223600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-3.7716300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-4.0905200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-4.0954999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-4.0215500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-4.0168500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-4.37981E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-4.3021999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-4.1616500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-4.18479E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-4.67686E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-4.7583399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-4.7814599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-5.0429000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-5.3640899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-5.7011100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-6.0892000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-6.7563999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-7.1957499999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-7.5175500000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-8.3622299999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-8.7512800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-9.0182999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-9.3265600000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-9.6023800000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.101587</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.101814</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.100914</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.10158</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.101341</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.100991</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.10106800000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.101378</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.101801</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.10520500000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.105239</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.10384599999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.10263700000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-9.7540100000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-9.5927499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-9.5202999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-9.5658199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-9.2071200000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-8.7681899999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-8.3569400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-7.9127000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-7.5615799999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-7.0380700000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-6.4670699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-5.9430499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-5.4523700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-4.9706E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-4.5566500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-4.1982699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-4.2569099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-3.9122900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-3.39128E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-3.0648399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-2.8270099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-2.8384900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-2.6300400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-2.3784199999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-2.20997E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-1.8067799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-1.7373599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-1.7951999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-1.8183999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-1.84788E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-1.9093800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-1.97874E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-1.84479E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-1.86816E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-1.9446700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-1.97424E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-1.9646199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-1.94053E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-1.9054000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-1.8363999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-1.7365200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-2.0639000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-1.7943500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-1.39766E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-1.10226E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-1.27346E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-8.9741000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-3.60327E-3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.3993700000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.5822599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>6.6697099999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>9.6676499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>7.78431E-3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>8.8039999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.0478400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.02773E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>8.9177900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.1314300000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.6070599999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-7.5306699999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-3.3851699999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-6.80242E-3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-1.0300800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-1.4091599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-2.4076500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-2.6809199999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-2.8688000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-3.1342799999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-3.5256799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-3.8881400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-4.3316300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-5.9240899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-6.2469799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-6.3680100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-6.6924899999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-9.6016400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-9.0793299999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-7.7781900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-7.5976299999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-7.8519900000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-8.0714099999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-9.1234499999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-0.12449200000000001</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-0.144542</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-0.159884</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-0.18770200000000001</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-0.20028199999999999</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-0.209508</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-0.224996</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-0.239373</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-0.25234099999999998</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-0.25379800000000002</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-0.25095099999999998</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-0.249615</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-0.241259</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-0.22792499999999999</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-0.208291</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-0.18971399999999999</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-0.17110700000000001</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-0.147762</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-0.12948699999999999</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-0.12199400000000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-0.102829</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-8.4718600000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-7.1083800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-6.2056E-2</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-5.2637299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-4.2291200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-3.5813400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-3.1426599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-1.00664E-2</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-7.8574600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-1.41263E-2</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-1.7610600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-4.3829699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-8.7084899999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-1.8907E-2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-2.42758E-2</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-2.7557000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-2.89337E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-2.7975799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-2.3445799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-1.6365999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-7.1340300000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>6.8218699999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>4.5668E-2</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>5.37148E-2</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>5.6614200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>6.7035899999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>8.33869E-2</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>9.3786499999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.103494</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.11797100000000001</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.14902199999999999</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.15561</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.15914700000000001</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.16939599999999999</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.19476199999999999</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.20507300000000001</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.21596000000000001</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.24185799999999999</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.26327200000000001</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.27450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.28516000000000002</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.29217599999999999</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.28966900000000001</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.27658899999999997</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.25615199999999999</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.22459499999999999</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.20242399999999999</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.17337900000000001</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.13444500000000001</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.104555</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>8.1092899999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>6.3992999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>4.4667699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2.46088E-2</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1.3065500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>8.5970500000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3.59488E-3</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-3.34913E-4</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-2.5667699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-2.7315899999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-2.24786E-3</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-1.7799300000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-1.4483E-3</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-1.4821299999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-2.1704599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-7.4848600000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-9.0434899999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-1.0590499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-1.36959E-2</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-1.7891500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-2.2819699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-3.84146E-2</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-4.2242099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-4.3236400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-4.8827299999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-5.5284E-2</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-6.3060900000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-7.2208999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-8.2011899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-0.103367</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-0.108372</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-0.111709</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-0.122334</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-0.12986200000000001</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-0.13841600000000001</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-0.14832500000000001</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-0.161602</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-0.18065000000000001</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-0.19463</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-0.204042</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-0.212174</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-0.21635799999999999</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-0.21935399999999999</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-0.22347400000000001</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-0.22200400000000001</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-0.21176500000000001</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-0.196599</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-0.18094099999999999</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-0.162525</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-0.15245400000000001</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-0.13711100000000001</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-0.120839</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-0.115648</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-0.104051</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-9.1560199999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-8.3151799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-7.7792799999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-7.1298399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-7.0286899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-7.2683700000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-7.5031399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>-7.6924099999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>-8.1696299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>-8.24019E-2</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>-8.1136200000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>-8.0608899999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>-7.8918699999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-7.6464699999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>-7.3965000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>-7.3281799999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>-7.0410399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>-6.7146999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>-6.3976199999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>-6.2325999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-6.1437600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>-6.0938699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>-6.1814000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>-6.2096499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>-6.2308799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>-6.1718799999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>-6.2512399999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>-6.3420000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>-6.3646300000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>-6.3064999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>-6.22826E-2</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>-6.1042800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>-6.0278499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>-5.7630599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>-5.3571599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>-5.0005300000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>-4.6892900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>-4.3636800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>-4.0511100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>-3.7495399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>-3.47506E-2</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>-3.2326199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>-3.0376299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>-2.85001E-2</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>-2.69047E-2</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>-2.6179299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>-2.5044199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>-2.3755999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>-2.3059799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-2.2511099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>-2.2239999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>-2.20857E-2</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>-2.3005500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>-2.2418500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>-2.1512900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>-2.1118899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>-2.0756400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>-2.0367400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>-2.0352700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>-2.0319E-2</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>-2.0160299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>-1.9704099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>-1.9451699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>-1.92278E-2</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>-1.88738E-2</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>-1.8513700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>-1.7988799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>-1.72496E-2</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>-1.6508200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>-1.58119E-2</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>-1.6516699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>-1.56677E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data_10_0.08!$G$2:$G$368</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="367"/>
+                <c:pt idx="0">
+                  <c:v>-4.3292199999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.24756</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.10720499999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.3050800000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2669099999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.125777</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.147124</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13148899999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10190200000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.1524599999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.3780600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.99464E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3166E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.1639200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.9396299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.30473E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.3688899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.2371100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.9604799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.6746199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.44385E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.2809600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.1905900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.1707499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.21768E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.2711800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.4458500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.0079099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.6783599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.4879E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.2645399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.0350399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-8.9320500000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-8.3975999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-8.8289600000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-9.8508599999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.12005E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.0938399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.3283E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.6429800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.8376699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.9399900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.00603E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2.0247500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.9821499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.8953600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1.82089E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.6933699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.55885E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.4424899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.3951E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.39601E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.42872E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.4936100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-2.2560400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-2.3202500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.9952299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.8417200000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.7951399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.6763699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.5340899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-1.46023E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-2.2216099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-2.3343200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-2.0281199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-1.8842100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.8673800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1.79296E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.6982899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.4502299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-1.51822E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-1.7871100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-2.0672900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-2.3643899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-2.76706E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-3.1266299999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-3.4361299999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-3.72001E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-3.9576600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-4.12234E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-4.21302E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-4.2391600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-4.6642700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-4.3770299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-3.8017500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-3.4539500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-3.8771100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-3.5587599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-3.0153200000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-2.9271200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-3.9607700000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-4.1985099999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-4.1828400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-4.6907600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-5.5312699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-6.3719999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-7.5063199999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-8.1669000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-8.7065699999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-9.9313700000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.103889</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.104103</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.105575</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.112784</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.110098</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.103492</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-9.9356200000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-9.5117999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-9.2525099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-9.20324E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-9.6925800000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-9.8489400000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-9.80182E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-9.3211299999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-9.4170699999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-9.6357700000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-9.9017999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-9.5588999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-8.9161299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-8.2493399999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-7.5317899999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-6.5849199999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-5.56322E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-4.62903E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-3.8148500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-3.1526999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-2.6577799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-2.8977599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-2.72769E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-2.28417E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-2.10089E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-2.4971400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-2.59595E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-2.4731400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-2.44973E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-1.99896E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-2.0480499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-2.31734E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-2.4223100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-2.4324499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-2.4693699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-2.23065E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-2.11136E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-2.07479E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-1.96782E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-1.8013399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-1.6346699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-1.4690399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-1.28871E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-1.9380100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-1.66036E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-9.6290200000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-6.1219400000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-1.17036E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-7.0137100000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.4182000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8.42561E-3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.21557E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.6033499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.9070199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.2879399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.20772E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.35409E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.15096E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>6.9821199999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-7.8034100000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-1.26152E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-1.2603E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-1.5584000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-1.9838600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-2.2457899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-4.0404099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-3.8598599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-2.8087899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-2.4104E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-2.3969000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-2.4191299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-2.4466600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-4.6026200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-4.7781200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-4.30433E-2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-4.9069300000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-6.2248299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-9.3740500000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-9.4824699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-9.7587400000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.118215</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-0.16111500000000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-0.183479</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-0.19981099999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-0.23697799999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-0.25855899999999998</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-0.27113399999999999</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-0.28501199999999999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-0.27781</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-0.25603900000000002</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-0.23858499999999999</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-0.21757799999999999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-0.18815200000000001</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-0.156308</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-0.12978899999999999</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-9.8978499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-7.6113E-2</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-7.4439900000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-6.14525E-2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-4.35187E-2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-3.6297000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-3.4846299999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-3.2943699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-3.1453599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-4.1107000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-5.1065700000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-2.2124100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-3.2419000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-1.05264E-2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-1.8778699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-4.0400499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-4.9298599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-4.8844800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-4.7208399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-4.1439799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-2.87882E-2</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-1.05761E-2</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.1308E-2</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>8.8030899999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.105017</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>8.88761E-2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>9.4120300000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.11584700000000001</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.13020599999999999</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.139485</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.16768</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.173988</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.17777999999999999</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.20850099999999999</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.22187699999999999</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.226433</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.25761400000000001</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.29229699999999997</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.29591600000000001</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.26763300000000001</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.22128700000000001</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.18377199999999999</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.135051</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>6.9206299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2.2896900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2.0688500000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-2.1130599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-4.0857299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-4.4715600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-3.6321300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-2.4247600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-1.01768E-2</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>5.3578300000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2.0528899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>3.2769100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>4.0215399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>4.3039399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2.83542E-2</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.55888E-2</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4.6093899999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-1.0904E-2</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-2.96943E-2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-6.9738499999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-8.4557099999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-8.2209900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-8.4889599999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-9.1003500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-9.3085399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-9.2443899999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-9.2800499999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-0.102062</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-9.9978200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-0.10199800000000001</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-0.116964</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-0.13562199999999999</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-0.15277499999999999</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-0.18334800000000001</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-0.213531</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-0.234985</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-0.24642900000000001</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-0.253251</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-0.25012299999999998</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-0.23464099999999999</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-0.20771899999999999</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-0.17619299999999999</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-0.149285</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-0.11334</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-7.7160199999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-5.92752E-2</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-3.6240099999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-2.2264300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-2.1762799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-2.7152900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-4.37834E-2</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-6.3072400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-8.4564799999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-9.8292299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-0.109347</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-0.114789</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-0.113236</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-0.107006</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-0.1002</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-8.7472400000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-7.2059999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-5.6821700000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-4.5548900000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-3.5852700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-3.3603899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-3.4303699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-3.5953899999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-4.2637000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-5.1882299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-6.0711300000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-6.7940100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-7.4329699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-7.8596200000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-8.05477E-2</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-7.7285099999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-6.8758700000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-5.9847999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-5.0614899999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-4.0622699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-3.0422100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-2.1558999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-1.47542E-2</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-1.0435E-2</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-7.9010799999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-8.4924600000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-1.04276E-2</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>-1.33927E-2</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>-1.7604999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>-2.2598199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>-2.7398499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>-3.1975700000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>-3.8206499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-3.9516700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>-3.7818400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>-3.5687000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>-3.2827500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>-2.8638799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>-2.5013299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>-2.0795500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-1.61922E-2</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>-1.1577E-2</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>-8.26935E-3</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>-6.7276300000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>-5.3355199999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>-5.1549500000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>-5.5434600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>-6.7254999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>-8.8015100000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>-1.4178100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>-1.70026E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="96367744"/>
+        <c:axId val="96369280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="96367744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96369280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96369280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96367744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -3616,6 +6027,41 @@
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4506,9 +6952,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L409"/>
+  <dimension ref="A1:L411"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G411" sqref="G411"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -20052,6 +22500,28 @@
       </c>
       <c r="L409">
         <v>115.852</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12">
+      <c r="D411">
+        <f>AVERAGE(D2:D409)</f>
+        <v>50.051417034313694</v>
+      </c>
+      <c r="E411">
+        <f>AVERAGE(E2:E409)</f>
+        <v>9.6475329213235345E-2</v>
+      </c>
+      <c r="F411">
+        <f>AVERAGE(F2:F409)</f>
+        <v>8.6023081151960723E-2</v>
+      </c>
+      <c r="I411">
+        <f>AVERAGE(I2:I409)</f>
+        <v>16591.031803921571</v>
+      </c>
+      <c r="J411">
+        <f>AVERAGE(J2:J409)</f>
+        <v>1.9092624754901966E-2</v>
       </c>
     </row>
   </sheetData>
@@ -20061,10 +22531,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L428"/>
+  <dimension ref="A1:L430"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L429"/>
+    <sheetView topLeftCell="A386" workbookViewId="0">
+      <selection activeCell="D430" sqref="D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36333,6 +38803,28 @@
         <v>117.104</v>
       </c>
     </row>
+    <row r="430" spans="1:12">
+      <c r="D430">
+        <f>AVERAGE(D2:D428)</f>
+        <v>49.338964196252952</v>
+      </c>
+      <c r="E430">
+        <f>AVERAGE(E2:E428)</f>
+        <v>0.18987219793910998</v>
+      </c>
+      <c r="F430">
+        <f>AVERAGE(F2:F428)</f>
+        <v>8.3547188782201395E-2</v>
+      </c>
+      <c r="I430">
+        <f>AVERAGE(I2:I428)</f>
+        <v>14957.64310304448</v>
+      </c>
+      <c r="J430">
+        <f>AVERAGE(J2:J428)</f>
+        <v>1.4989146370023427E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36340,10 +38832,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L357"/>
+  <dimension ref="A1:L359"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection sqref="A1:L358"/>
+    <sheetView topLeftCell="A315" workbookViewId="0">
+      <selection activeCell="D359" sqref="D359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49914,6 +52406,28 @@
         <v>116.58499999999999</v>
       </c>
     </row>
+    <row r="359" spans="1:12">
+      <c r="D359">
+        <f>AVERAGE(D2:D357)</f>
+        <v>52.2505548202247</v>
+      </c>
+      <c r="E359">
+        <f>AVERAGE(E2:E357)</f>
+        <v>8.6881389115168572E-2</v>
+      </c>
+      <c r="F359">
+        <f>AVERAGE(F2:F357)</f>
+        <v>9.0217170856741524E-2</v>
+      </c>
+      <c r="I359">
+        <f>AVERAGE(I2:I357)</f>
+        <v>32520.383674157307</v>
+      </c>
+      <c r="J359">
+        <f>AVERAGE(J2:J357)</f>
+        <v>3.0824463202247198E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49921,10 +52435,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L368"/>
+  <dimension ref="A1:L370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L368"/>
+      <selection activeCell="D370" sqref="D370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -63913,17 +66427,40 @@
         <v>116.292</v>
       </c>
     </row>
+    <row r="370" spans="4:10">
+      <c r="D370">
+        <f>AVERAGE(D2:D368)</f>
+        <v>56.308592697547638</v>
+      </c>
+      <c r="E370">
+        <f>AVERAGE(E2:E368)</f>
+        <v>0.14769720803814693</v>
+      </c>
+      <c r="F370">
+        <f>AVERAGE(F2:F368)</f>
+        <v>6.916827082561311E-2</v>
+      </c>
+      <c r="I370">
+        <f>AVERAGE(I2:I368)</f>
+        <v>13099.902250681202</v>
+      </c>
+      <c r="J370">
+        <f>AVERAGE(J2:J368)</f>
+        <v>1.7642512534059948E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L451"/>
+  <dimension ref="A1:L453"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L451"/>
+    <sheetView topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="D453" sqref="D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -81066,7 +83603,42 @@
         <v>116.684</v>
       </c>
     </row>
+    <row r="453" spans="1:12">
+      <c r="D453">
+        <f>AVERAGE(D2:D451)</f>
+        <v>45.001575199999998</v>
+      </c>
+      <c r="E453">
+        <f>AVERAGE(E2:E451)</f>
+        <v>5.0579406200000144E-3</v>
+      </c>
+      <c r="F453">
+        <f>AVERAGE(F2:F451)</f>
+        <v>9.9399181411111107E-2</v>
+      </c>
+      <c r="I453">
+        <f>AVERAGE(I2:I451)</f>
+        <v>27037.494133333355</v>
+      </c>
+      <c r="J453">
+        <f>AVERAGE(J2:J451)</f>
+        <v>1.9723172888888901E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="16275" windowHeight="9540" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="16275" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="track" sheetId="2" r:id="rId1"/>
@@ -6013,6 +6013,1295 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data_10_0.12!$J$2:$J$409</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="408"/>
+                <c:pt idx="0">
+                  <c:v>1.80845E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.64669E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6353300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5288700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.53911E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.51378E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5197199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5785299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.62799E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6406199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.52839E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7849E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.49255E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4152400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.41786E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3939699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.51719E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5667500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.40711E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.53443E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6240999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6201400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6245099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.61853E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.71083E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6215400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6635899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6248499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6222899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6707900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8408799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6482299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.67298E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6942800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7470099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.6597299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6200699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.6719899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.63857E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.7874299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.62208E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.8111800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7117500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.8028200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8874999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7795100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.8473300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7937399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7741799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.8264699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.8064400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.9053899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.7218899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.82989E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.9016999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.8243599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.9972799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.9636899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.05165E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.4381099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.1446E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.07957E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.9358E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.9100700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7783500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.8195099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.8465100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.8528900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.71865E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7216200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7194299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.6255700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.63898E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.6138900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.6329400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.6124599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.6346099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.6157000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.6165200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.6362499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.6322199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7850999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.8743300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.9323900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.92915E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.0015100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.98441E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.7395399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.72046E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.6236899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.59113E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.66222E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.6333500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.85395E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.62355E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.6248100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.56454E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.8441900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.8441900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.1518700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.6058100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.0293599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.46374E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.0509100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.75336E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.9509200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.6643100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.2132799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.3494000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.54092E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.3870499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.04657E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.7297400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.7222999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.6196599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.6328700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.9431799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.8597200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.6003400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.7442099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.04599E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.1477E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.9661499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.99861E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.7193300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.7226100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.7050599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.7707299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.8264699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.14658E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.7585799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.9427300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.93399E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.74681E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.71445E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.60403E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.7354700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.6423299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.71988E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.49883E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.6418499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.6121900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.9104400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.8298200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.0401499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.9347099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.7101100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.89071E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.6027E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.8391399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.60362E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.4707400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.60918E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.6108899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.8134399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.7171800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.49579E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.75459E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.6088700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.7025999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.6834200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.02274E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.7281399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.8390400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.60638E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.6055300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.4881800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.4808699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.48497E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.55426E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.1305999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.6979600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.7094000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.7216499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.10797E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.9486E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.5896899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.48296E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.7222999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.9706899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.3361199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.8158199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.1144199999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.6915800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.8368800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.8116299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.7975600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.91635E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.60205E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.5923199999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.8039099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.69038E-2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.9311999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.2343700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.54986E-2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.6993299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.0263199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.24788E-2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.45084E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3.90379E-2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2.2209199999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2.2490799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2.2034100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2.76432E-2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2.1438499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2.9909000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.93311E-2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2.1521100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2.37728E-2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2.5414300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2.4343900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2.7171799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2.02718E-2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2.0084000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2.20938E-2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2.41712E-2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2.4724099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.46705E-2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.5711900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.92331E-2</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1.9230000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.80412E-2</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2.2282199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2.73282E-2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2.7250699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.9000300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2.4099800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2.4634E-2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.9110599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.7971899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2.2097200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.8998299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.8808800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1.77568E-2</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2.23164E-2</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2.3345500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1.8815700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1.7964000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1.8260599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2.53262E-2</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2.1213200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2.2156599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2.0004899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2.2262400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2.2232399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.9922599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.9030700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2.1192699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2.5270299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2.0024E-2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2.71869E-2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2.1079000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.8979800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2.14699E-2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2.3382E-2</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2.0425700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2.4945700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2.4809500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2.46135E-2</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2.30905E-2</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2.1094399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>3.7123400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2.20593E-2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2.1233700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2.13736E-2</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2.0775600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>3.3737000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2.9774200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2.0404200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.94959E-2</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.77702E-2</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.70387E-2</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.82808E-2</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.9101400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2.5682900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2.2156599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2.55208E-2</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2.18993E-2</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2.46456E-2</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2.1545600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2.2801399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1.79705E-2</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1.79746E-2</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1.7860600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1.9140899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1.95181E-2</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1.9724999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1.9358400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1.9576799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2.2247400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1.91945E-2</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1.9202400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1.79787E-2</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1.6888500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1.6900399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.6896700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.84859E-2</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1.6002700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1.5869299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1.58382E-2</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1.7373900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.8994899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2.3205900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1.8025099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1.6889899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2.02052E-2</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2.4495400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2.87887E-2</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>3.9328399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>3.56823E-2</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>3.1788700000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2.8210900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2.3311700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2.0496400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2.22293E-2</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2.4016900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>2.0873900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>3.4701599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>3.04794E-2</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>2.2679899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>1.5777099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1.7906999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1.9999699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>1.8076999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>2.01806E-2</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1.7736999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>2.3308599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1.9127600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>1.9932499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>2.0608999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1.8122699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>1.7019900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1.6977599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1.57699E-2</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>1.7232899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1.7726100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1.8098900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>1.79483E-2</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>1.7992999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>2.1822500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>3.2331400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>2.5642999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>1.9458400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>1.79179E-2</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1.7996499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1.7936000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>1.69909E-2</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1.9860099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>1.69458E-2</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>1.6129399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>1.55105E-2</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>1.5763099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>1.6003099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>1.59621E-2</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>1.59604E-2</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>1.6745099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>1.77521E-2</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>1.5285200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>1.5951900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>1.70885E-2</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1.56337E-2</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>1.5894200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1.6942100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>1.68827E-2</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1.8324099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>1.8925899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1.8180100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>2.1531600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>1.92727E-2</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>2.0722999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>1.59106E-2</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>1.4875599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>1.5057900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>1.59983E-2</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1.4944300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>1.48296E-2</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>1.49835E-2</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1.6167299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>1.5844299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1.70749E-2</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1.6823299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1.9777900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>2.04779E-2</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1.69155E-2</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1.60836E-2</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>1.7141099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>1.5004699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>1.5359299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>1.49412E-2</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>1.37342E-2</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1.35298E-2</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>1.4621E-2</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>1.58201E-2</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>1.8992100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>1.7308299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>1.5914299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>1.50361E-2</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>1.4940200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>1.38885E-2</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>1.39895E-2</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>1.48326E-2</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>1.8296099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>1.7252300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>1.6190800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>1.5089999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>1.4700899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>1.9019399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>1.7141400000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="94120576"/>
+        <c:axId val="79221120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="94120576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79221120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="79221120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94120576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6075,6 +7364,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6370,7 +7689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B71"/>
     </sheetView>
   </sheetViews>
@@ -6952,10 +8271,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L411"/>
+  <dimension ref="A1:L413"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G411" sqref="G411"/>
+    <sheetView topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="D414" sqref="D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22522,6 +23841,12 @@
       <c r="J411">
         <f>AVERAGE(J2:J409)</f>
         <v>1.9092624754901966E-2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12">
+      <c r="D413">
+        <f>MAX(D2:D409)</f>
+        <v>74.7316</v>
       </c>
     </row>
   </sheetData>
@@ -83634,7 +84959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
